--- a/完成情况文档.xlsx
+++ b/完成情况文档.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
-  <si>
-    <t>第一天</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>第一天（7月29号）</t>
   </si>
   <si>
     <t>项目介绍，搭框架，json文件</t>
@@ -25,22 +25,37 @@
     <t>完成</t>
   </si>
   <si>
-    <t>第二天</t>
+    <t>第二天（7月30号）</t>
   </si>
   <si>
     <t>静态布局，5个路由，home页面调数据</t>
   </si>
   <si>
-    <t>第三天</t>
+    <t>第三天（7月31号）</t>
   </si>
   <si>
     <t>点击搜索框出现一个列表蒙版，实现点击各个列表的页面跳转并获取相对应页面的json数据</t>
   </si>
   <si>
-    <t>第四天</t>
+    <t>第四天（8月1号）</t>
   </si>
   <si>
     <t>实现分页，并获取各个页面的json数据</t>
+  </si>
+  <si>
+    <t>没有完成</t>
+  </si>
+  <si>
+    <t>第五天</t>
+  </si>
+  <si>
+    <t>登录注册</t>
+  </si>
+  <si>
+    <t>第六天</t>
+  </si>
+  <si>
+    <t>购物车</t>
   </si>
 </sst>
 </file>
@@ -50,8 +65,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,7 +78,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,130 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,31 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,26 +454,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +504,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,12 +997,12 @@
   <dimension ref="A25:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="93.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,24 +1028,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="21.5" customHeight="1" spans="1:2">
+    <row r="27" ht="21.5" customHeight="1" spans="1:3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" ht="21.5" customHeight="1" spans="1:2">
+    <row r="28" ht="21.5" customHeight="1" spans="1:3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="29" ht="21.5" customHeight="1"/>
-    <row r="30" ht="21.5" customHeight="1"/>
+    <row r="29" ht="21.5" customHeight="1" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="21.5" customHeight="1" spans="1:3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="31" ht="21.5" customHeight="1"/>
     <row r="32" ht="21.5" customHeight="1"/>
     <row r="33" ht="21.5" customHeight="1"/>

--- a/完成情况文档.xlsx
+++ b/完成情况文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>第一天（7月29号）</t>
   </si>
@@ -37,25 +37,16 @@
     <t>点击搜索框出现一个列表蒙版，实现点击各个列表的页面跳转并获取相对应页面的json数据</t>
   </si>
   <si>
-    <t>第四天（8月1号）</t>
+    <t>第四天</t>
   </si>
   <si>
-    <t>实现分页，并获取各个页面的json数据</t>
-  </si>
-  <si>
-    <t>没有完成</t>
+    <t>登录注册，正则判断是否符合要求</t>
   </si>
   <si>
     <t>第五天</t>
   </si>
   <si>
-    <t>登录注册</t>
-  </si>
-  <si>
-    <t>第六天</t>
-  </si>
-  <si>
-    <t>购物车</t>
+    <t>购物车，添加，减少，删除，价格的变化</t>
   </si>
 </sst>
 </file>
@@ -63,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +69,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,10 +90,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,38 +120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +143,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -168,7 +167,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,46 +182,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +221,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,157 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +412,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,17 +430,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +474,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,15 +508,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -529,145 +520,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,10 +985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A25:C44"/>
+  <dimension ref="A25:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1047,31 +1038,21 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="21.5" customHeight="1" spans="1:3">
       <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="21.5" customHeight="1" spans="1:3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="30" ht="21.5" customHeight="1"/>
     <row r="31" ht="21.5" customHeight="1"/>
     <row r="32" ht="21.5" customHeight="1"/>
     <row r="33" ht="21.5" customHeight="1"/>
@@ -1085,7 +1066,6 @@
     <row r="41" ht="21.5" customHeight="1"/>
     <row r="42" ht="21.5" customHeight="1"/>
     <row r="43" ht="21.5" customHeight="1"/>
-    <row r="44" ht="21.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
